--- a/ManCity.xlsx
+++ b/ManCity.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fut_Pred\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D0EBAB27-DB81-4DC4-B456-380CA0E65A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748AB5EF-0BF7-4BAD-BFE9-28453040713B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3A0648FF-3E4C-4010-B676-AD68D73EB541}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Worksheet!$A$1:$CM$49</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -217,9 +220,6 @@
     <t>Chelsea</t>
   </si>
   <si>
-    <t>eng Premier League</t>
-  </si>
-  <si>
     <t>W 2-0</t>
   </si>
   <si>
@@ -374,6 +374,9 @@
   </si>
   <si>
     <t>W 5-2</t>
+  </si>
+  <si>
+    <t>Premier League</t>
   </si>
 </sst>
 </file>
@@ -1238,13 +1241,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FC9F18-32D9-4087-A1AC-F03BF468420E}">
-  <dimension ref="A1:CM50"/>
+  <dimension ref="A1:CM49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="N2" sqref="N2:N49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="12.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
@@ -1337,7 +1340,7 @@
     <col min="91" max="91" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:91" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1610,7 +1613,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:91" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1651,10 +1654,10 @@
         <v>64</v>
       </c>
       <c r="N2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="P2" s="3">
         <v>2</v>
@@ -1885,7 +1888,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:91" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1921,13 +1924,13 @@
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="P3" s="3">
         <v>4</v>
@@ -2158,7 +2161,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:91" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2196,13 +2199,13 @@
         <v>63</v>
       </c>
       <c r="M4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="P4" s="3">
         <v>3</v>
@@ -2433,7 +2436,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:91" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2469,13 +2472,13 @@
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O5" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="P5" s="3">
         <v>2</v>
@@ -2706,7 +2709,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:91" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2742,13 +2745,13 @@
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="P6" s="3">
         <v>0</v>
@@ -2979,7 +2982,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:91" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3015,13 +3018,13 @@
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="P7" s="3">
         <v>2</v>
@@ -3252,7 +3255,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:91" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3290,13 +3293,13 @@
         <v>63</v>
       </c>
       <c r="M8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O8" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="P8" s="3">
         <v>1</v>
@@ -3527,7 +3530,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:91" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3565,13 +3568,13 @@
         <v>63</v>
       </c>
       <c r="M9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="P9" s="3">
         <v>4</v>
@@ -3802,7 +3805,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:91" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3838,13 +3841,13 @@
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O10" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="P10" s="3">
         <v>3</v>
@@ -4075,7 +4078,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:91" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4113,13 +4116,13 @@
         <v>63</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P11" s="3">
         <v>2</v>
@@ -4350,7 +4353,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:91" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4386,13 +4389,13 @@
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O12" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="P12" s="3">
         <v>5</v>
@@ -4623,7 +4626,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:91" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4659,13 +4662,13 @@
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O13" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="P13" s="3">
         <v>1</v>
@@ -4896,7 +4899,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:91" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4934,13 +4937,13 @@
         <v>63</v>
       </c>
       <c r="M14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="P14" s="3">
         <v>1</v>
@@ -5171,7 +5174,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:91" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -5209,13 +5212,13 @@
         <v>63</v>
       </c>
       <c r="M15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O15" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="P15" s="3">
         <v>1</v>
@@ -5446,7 +5449,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:91" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -5484,13 +5487,13 @@
         <v>63</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P16" s="3">
         <v>1</v>
@@ -5721,7 +5724,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:91" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -5757,13 +5760,13 @@
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O17" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="P17" s="3">
         <v>0</v>
@@ -5994,7 +5997,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:91" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -6030,13 +6033,13 @@
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O18" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="P18" s="3">
         <v>3</v>
@@ -6267,7 +6270,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:91" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -6305,13 +6308,13 @@
         <v>63</v>
       </c>
       <c r="M19" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O19" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="P19" s="3">
         <v>0</v>
@@ -6542,7 +6545,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:91" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -6578,13 +6581,13 @@
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O20" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="P20" s="3">
         <v>3</v>
@@ -6815,7 +6818,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:91" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -6853,13 +6856,13 @@
         <v>63</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P21" s="3">
         <v>2</v>
@@ -7090,7 +7093,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:91" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -7128,13 +7131,13 @@
         <v>63</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -7365,7 +7368,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:91" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -7401,13 +7404,13 @@
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P23" s="3">
         <v>1</v>
@@ -7638,7 +7641,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:91" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -7676,13 +7679,13 @@
         <v>63</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P24" s="3">
         <v>1</v>
@@ -7913,7 +7916,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:91" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -7949,13 +7952,13 @@
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P25" s="3">
         <v>1</v>
@@ -8186,7 +8189,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:91" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -8224,13 +8227,13 @@
         <v>63</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N26" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O26" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="P26" s="3">
         <v>2</v>
@@ -8461,7 +8464,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:91" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -8497,13 +8500,13 @@
       </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P27" s="3">
         <v>4</v>
@@ -8734,7 +8737,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:91" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -8772,13 +8775,13 @@
         <v>63</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P28" s="3">
         <v>2</v>
@@ -9009,7 +9012,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:91" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -9047,13 +9050,13 @@
         <v>63</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P29" s="3">
         <v>6</v>
@@ -9284,7 +9287,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:91" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -9322,13 +9325,13 @@
         <v>63</v>
       </c>
       <c r="M30" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O30" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="P30" s="3">
         <v>2</v>
@@ -9559,7 +9562,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:91" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -9598,10 +9601,10 @@
         <v>64</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P31" s="3">
         <v>3</v>
@@ -9832,7 +9835,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:91" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -9868,13 +9871,13 @@
       </c>
       <c r="L32" s="3"/>
       <c r="M32" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P32" s="3">
         <v>3</v>
@@ -10105,7 +10108,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:91" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -10143,13 +10146,13 @@
         <v>63</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P33" s="3">
         <v>1</v>
@@ -10380,7 +10383,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:91" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -10416,13 +10419,13 @@
       </c>
       <c r="L34" s="3"/>
       <c r="M34" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O34" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="O34" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="P34" s="3">
         <v>2</v>
@@ -10653,7 +10656,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:91" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -10689,13 +10692,13 @@
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P35" s="3">
         <v>4</v>
@@ -10926,7 +10929,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:91" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -10964,13 +10967,13 @@
         <v>63</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P36" s="3">
         <v>1</v>
@@ -11201,7 +11204,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:91" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -11237,13 +11240,13 @@
       </c>
       <c r="L37" s="3"/>
       <c r="M37" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O37" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O37" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="P37" s="3">
         <v>0</v>
@@ -11474,7 +11477,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:91" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -11512,13 +11515,13 @@
         <v>63</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P38" s="3">
         <v>1</v>
@@ -11749,7 +11752,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:91" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -11787,13 +11790,13 @@
         <v>63</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P39" s="3">
         <v>0</v>
@@ -12024,7 +12027,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:91" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -12060,13 +12063,13 @@
       </c>
       <c r="L40" s="3"/>
       <c r="M40" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P40" s="3">
         <v>2</v>
@@ -12297,7 +12300,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:91" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -12333,13 +12336,13 @@
       </c>
       <c r="L41" s="3"/>
       <c r="M41" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N41" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O41" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="P41" s="3">
         <v>2</v>
@@ -12570,7 +12573,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:91" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -12608,13 +12611,13 @@
         <v>63</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -12845,7 +12848,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:91" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -12881,13 +12884,13 @@
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P43" s="3">
         <v>5</v>
@@ -13118,7 +13121,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:91" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -13156,13 +13159,13 @@
         <v>63</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N44" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O44" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="P44" s="3">
         <v>2</v>
@@ -13393,7 +13396,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:91" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -13429,13 +13432,13 @@
       </c>
       <c r="L45" s="3"/>
       <c r="M45" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P45" s="3">
         <v>2</v>
@@ -13666,7 +13669,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:91" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -13702,13 +13705,13 @@
       </c>
       <c r="L46" s="3"/>
       <c r="M46" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P46" s="3">
         <v>1</v>
@@ -13939,7 +13942,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:91" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -13977,13 +13980,13 @@
         <v>63</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -14214,7 +14217,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:91" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -14250,13 +14253,13 @@
       </c>
       <c r="L48" s="3"/>
       <c r="M48" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P48" s="3">
         <v>3</v>
@@ -14487,7 +14490,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:91" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -14525,13 +14528,13 @@
         <v>63</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N49" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O49" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="P49" s="3">
         <v>2</v>
@@ -14762,8 +14765,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:91" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <autoFilter ref="A1:CM49" xr:uid="{75FC9F18-32D9-4087-A1AC-F03BF468420E}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>